--- a/biology/Écologie/Composé_organofluoré/Composé_organofluoré.xlsx
+++ b/biology/Écologie/Composé_organofluoré/Composé_organofluoré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compos%C3%A9_organofluor%C3%A9</t>
+          <t>Composé_organofluoré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un composé organofluoré est un composé organique qui comporte des liaisons carbone-fluor, liaison chimique remarquablement solide et polarisée entre le carbone et le fluor.
 Il existe une grande diversité de composés organofluorés parmi lesquels on trouve des fluorocarbures, des composés perfluorés ou monofluorés synthétisés biologiquement.
